--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il4-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il4-Il2rg.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9334919999999999</v>
+        <v>0.9458723333333334</v>
       </c>
       <c r="H2">
-        <v>2.800476</v>
+        <v>2.837617</v>
       </c>
       <c r="I2">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="J2">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.55401366666667</v>
+        <v>43.68636333333333</v>
       </c>
       <c r="N2">
-        <v>73.662041</v>
+        <v>131.05909</v>
       </c>
       <c r="O2">
-        <v>0.2501033965205259</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="P2">
-        <v>0.250103396520526</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="Q2">
-        <v>22.920975325724</v>
+        <v>41.32172242094778</v>
       </c>
       <c r="R2">
-        <v>206.288777931516</v>
+        <v>371.8955017885301</v>
       </c>
       <c r="S2">
-        <v>0.05229553691525631</v>
+        <v>0.08723827688277072</v>
       </c>
       <c r="T2">
-        <v>0.05229553691525633</v>
+        <v>0.08723827688277072</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9334919999999999</v>
+        <v>0.9458723333333334</v>
       </c>
       <c r="H3">
-        <v>2.800476</v>
+        <v>2.837617</v>
       </c>
       <c r="I3">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="J3">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.615614</v>
       </c>
       <c r="O3">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="P3">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="Q3">
-        <v>1.125048914696</v>
+        <v>1.139969750204222</v>
       </c>
       <c r="R3">
-        <v>10.125440232264</v>
+        <v>10.259727751838</v>
       </c>
       <c r="S3">
-        <v>0.002566864464267526</v>
+        <v>0.002406700178013004</v>
       </c>
       <c r="T3">
-        <v>0.002566864464267526</v>
+        <v>0.002406700178013003</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9334919999999999</v>
+        <v>0.9458723333333334</v>
       </c>
       <c r="H4">
-        <v>2.800476</v>
+        <v>2.837617</v>
       </c>
       <c r="I4">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="J4">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.078950333333333</v>
+        <v>4.981224333333333</v>
       </c>
       <c r="N4">
-        <v>15.236851</v>
+        <v>14.943673</v>
       </c>
       <c r="O4">
-        <v>0.0517334048262004</v>
+        <v>0.05308849315764798</v>
       </c>
       <c r="P4">
-        <v>0.05173340482620041</v>
+        <v>0.05308849315764799</v>
       </c>
       <c r="Q4">
-        <v>4.741159504563999</v>
+        <v>4.711602283026778</v>
       </c>
       <c r="R4">
-        <v>42.670435541076</v>
+        <v>42.404420547241</v>
       </c>
       <c r="S4">
-        <v>0.01081723087122661</v>
+        <v>0.009947118378584691</v>
       </c>
       <c r="T4">
-        <v>0.01081723087122661</v>
+        <v>0.009947118378584691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9334919999999999</v>
+        <v>0.9458723333333334</v>
       </c>
       <c r="H5">
-        <v>2.800476</v>
+        <v>2.837617</v>
       </c>
       <c r="I5">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="J5">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>67.337282</v>
+        <v>43.95590833333333</v>
       </c>
       <c r="N5">
-        <v>202.011846</v>
+        <v>131.867725</v>
       </c>
       <c r="O5">
-        <v>0.6858871697837075</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="P5">
-        <v>0.6858871697837076</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="Q5">
-        <v>62.85881404874399</v>
+        <v>41.57667757903612</v>
       </c>
       <c r="R5">
-        <v>565.7293264386959</v>
+        <v>374.1900982113251</v>
       </c>
       <c r="S5">
-        <v>0.1434160363519126</v>
+        <v>0.08777653732717867</v>
       </c>
       <c r="T5">
-        <v>0.1434160363519126</v>
+        <v>0.08777653732717866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>5.893002</v>
       </c>
       <c r="I6">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="J6">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.55401366666667</v>
+        <v>43.68636333333333</v>
       </c>
       <c r="N6">
-        <v>73.662041</v>
+        <v>131.05909</v>
       </c>
       <c r="O6">
-        <v>0.2501033965205259</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="P6">
-        <v>0.250103396520526</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="Q6">
-        <v>48.232283881898</v>
+        <v>85.81460883202</v>
       </c>
       <c r="R6">
-        <v>434.090554937082</v>
+        <v>772.33147948818</v>
       </c>
       <c r="S6">
-        <v>0.1100447579742441</v>
+        <v>0.1811715041694216</v>
       </c>
       <c r="T6">
-        <v>0.1100447579742442</v>
+        <v>0.1811715041694216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.893002</v>
       </c>
       <c r="I7">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="J7">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.615614</v>
       </c>
       <c r="O7">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="P7">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="Q7">
         <v>2.367424503692</v>
@@ -883,10 +883,10 @@
         <v>21.306820533228</v>
       </c>
       <c r="S7">
-        <v>0.005401416552635145</v>
+        <v>0.004998098391160957</v>
       </c>
       <c r="T7">
-        <v>0.005401416552635146</v>
+        <v>0.004998098391160957</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>5.893002</v>
       </c>
       <c r="I8">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="J8">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.078950333333333</v>
+        <v>4.981224333333333</v>
       </c>
       <c r="N8">
-        <v>15.236851</v>
+        <v>14.943673</v>
       </c>
       <c r="O8">
-        <v>0.0517334048262004</v>
+        <v>0.05308849315764798</v>
       </c>
       <c r="P8">
-        <v>0.05173340482620041</v>
+        <v>0.05308849315764799</v>
       </c>
       <c r="Q8">
-        <v>9.976754824078</v>
+        <v>9.784788319594</v>
       </c>
       <c r="R8">
-        <v>89.790793416702</v>
+        <v>88.063094876346</v>
       </c>
       <c r="S8">
-        <v>0.02276254578100299</v>
+        <v>0.02065761112202117</v>
       </c>
       <c r="T8">
-        <v>0.022762545781003</v>
+        <v>0.02065761112202117</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>5.893002</v>
       </c>
       <c r="I9">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="J9">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.337282</v>
+        <v>43.95590833333333</v>
       </c>
       <c r="N9">
-        <v>202.011846</v>
+        <v>131.867725</v>
       </c>
       <c r="O9">
-        <v>0.6858871697837075</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="P9">
-        <v>0.6858871697837076</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="Q9">
-        <v>132.272912500188</v>
+        <v>86.34408524005001</v>
       </c>
       <c r="R9">
-        <v>1190.456212501692</v>
+        <v>777.0967671604501</v>
       </c>
       <c r="S9">
-        <v>0.3017883349308809</v>
+        <v>0.1822893329234137</v>
       </c>
       <c r="T9">
-        <v>0.3017883349308809</v>
+        <v>0.1822893329234137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.413418666666667</v>
+        <v>1.499502333333333</v>
       </c>
       <c r="H10">
-        <v>4.240256</v>
+        <v>4.498507</v>
       </c>
       <c r="I10">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="J10">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.55401366666667</v>
+        <v>43.68636333333333</v>
       </c>
       <c r="N10">
-        <v>73.662041</v>
+        <v>131.05909</v>
       </c>
       <c r="O10">
-        <v>0.2501033965205259</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="P10">
-        <v>0.250103396520526</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="Q10">
-        <v>34.70510125805511</v>
+        <v>65.50780375318111</v>
       </c>
       <c r="R10">
-        <v>312.345911322496</v>
+        <v>589.57023377863</v>
       </c>
       <c r="S10">
-        <v>0.07918170488807513</v>
+        <v>0.1382998478036614</v>
       </c>
       <c r="T10">
-        <v>0.07918170488807515</v>
+        <v>0.1382998478036614</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.413418666666667</v>
+        <v>1.499502333333333</v>
       </c>
       <c r="H11">
-        <v>4.240256</v>
+        <v>4.498507</v>
       </c>
       <c r="I11">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="J11">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.615614</v>
       </c>
       <c r="O11">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="P11">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="Q11">
-        <v>1.703458773020444</v>
+        <v>1.807207209810889</v>
       </c>
       <c r="R11">
-        <v>15.331128957184</v>
+        <v>16.264864888298</v>
       </c>
       <c r="S11">
-        <v>0.003886540161671503</v>
+        <v>0.003815369585709678</v>
       </c>
       <c r="T11">
-        <v>0.003886540161671503</v>
+        <v>0.003815369585709678</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.413418666666667</v>
+        <v>1.499502333333333</v>
       </c>
       <c r="H12">
-        <v>4.240256</v>
+        <v>4.498507</v>
       </c>
       <c r="I12">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="J12">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.078950333333333</v>
+        <v>4.981224333333333</v>
       </c>
       <c r="N12">
-        <v>15.236851</v>
+        <v>14.943673</v>
       </c>
       <c r="O12">
-        <v>0.0517334048262004</v>
+        <v>0.05308849315764798</v>
       </c>
       <c r="P12">
-        <v>0.05173340482620041</v>
+        <v>0.05308849315764799</v>
       </c>
       <c r="Q12">
-        <v>7.178683208206222</v>
+        <v>7.469357510690111</v>
       </c>
       <c r="R12">
-        <v>64.608148873856</v>
+        <v>67.22421759621101</v>
       </c>
       <c r="S12">
-        <v>0.01637858282131461</v>
+        <v>0.01576928163874542</v>
       </c>
       <c r="T12">
-        <v>0.01637858282131461</v>
+        <v>0.01576928163874543</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.413418666666667</v>
+        <v>1.499502333333333</v>
       </c>
       <c r="H13">
-        <v>4.240256</v>
+        <v>4.498507</v>
       </c>
       <c r="I13">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="J13">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.337282</v>
+        <v>43.95590833333333</v>
       </c>
       <c r="N13">
-        <v>202.011846</v>
+        <v>131.867725</v>
       </c>
       <c r="O13">
-        <v>0.6858871697837075</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="P13">
-        <v>0.6858871697837076</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="Q13">
-        <v>95.17577134139734</v>
+        <v>65.91198710961945</v>
       </c>
       <c r="R13">
-        <v>856.5819420725759</v>
+        <v>593.207883986575</v>
       </c>
       <c r="S13">
-        <v>0.2171490520316601</v>
+        <v>0.1391531583022214</v>
       </c>
       <c r="T13">
-        <v>0.2171490520316601</v>
+        <v>0.1391531583022214</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1531806666666667</v>
+        <v>0.6384806666666667</v>
       </c>
       <c r="H14">
-        <v>0.459542</v>
+        <v>1.915442</v>
       </c>
       <c r="I14">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="J14">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.55401366666667</v>
+        <v>43.68636333333333</v>
       </c>
       <c r="N14">
-        <v>73.662041</v>
+        <v>131.05909</v>
       </c>
       <c r="O14">
-        <v>0.2501033965205259</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="P14">
-        <v>0.250103396520526</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="Q14">
-        <v>3.761200182802444</v>
+        <v>27.89289838530889</v>
       </c>
       <c r="R14">
-        <v>33.850801645222</v>
+        <v>251.03608546778</v>
       </c>
       <c r="S14">
-        <v>0.008581396742950383</v>
+        <v>0.05888739021118358</v>
       </c>
       <c r="T14">
-        <v>0.008581396742950385</v>
+        <v>0.05888739021118358</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1531806666666667</v>
+        <v>0.6384806666666667</v>
       </c>
       <c r="H15">
-        <v>0.459542</v>
+        <v>1.915442</v>
       </c>
       <c r="I15">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="J15">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.615614</v>
       </c>
       <c r="O15">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="P15">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="Q15">
-        <v>0.1846140543097778</v>
+        <v>0.7694998790431111</v>
       </c>
       <c r="R15">
-        <v>1.661526488788</v>
+        <v>6.925498911388</v>
       </c>
       <c r="S15">
-        <v>0.0004212076909919698</v>
+        <v>0.001624565472498079</v>
       </c>
       <c r="T15">
-        <v>0.0004212076909919699</v>
+        <v>0.001624565472498079</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1531806666666667</v>
+        <v>0.6384806666666667</v>
       </c>
       <c r="H16">
-        <v>0.459542</v>
+        <v>1.915442</v>
       </c>
       <c r="I16">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="J16">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.078950333333333</v>
+        <v>4.981224333333333</v>
       </c>
       <c r="N16">
-        <v>15.236851</v>
+        <v>14.943673</v>
       </c>
       <c r="O16">
-        <v>0.0517334048262004</v>
+        <v>0.05308849315764798</v>
       </c>
       <c r="P16">
-        <v>0.05173340482620041</v>
+        <v>0.05308849315764799</v>
       </c>
       <c r="Q16">
-        <v>0.7779969980268888</v>
+        <v>3.180415433162889</v>
       </c>
       <c r="R16">
-        <v>7.001972982242</v>
+        <v>28.623738898466</v>
       </c>
       <c r="S16">
-        <v>0.001775045352656198</v>
+        <v>0.006714482018296697</v>
       </c>
       <c r="T16">
-        <v>0.001775045352656198</v>
+        <v>0.006714482018296697</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1531806666666667</v>
+        <v>0.6384806666666667</v>
       </c>
       <c r="H17">
-        <v>0.459542</v>
+        <v>1.915442</v>
       </c>
       <c r="I17">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="J17">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>67.337282</v>
+        <v>43.95590833333333</v>
       </c>
       <c r="N17">
-        <v>202.011846</v>
+        <v>131.867725</v>
       </c>
       <c r="O17">
-        <v>0.6858871697837075</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="P17">
-        <v>0.6858871697837076</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="Q17">
-        <v>10.31476974828133</v>
+        <v>28.06499765660556</v>
       </c>
       <c r="R17">
-        <v>92.83292773453199</v>
+        <v>252.58497890945</v>
       </c>
       <c r="S17">
-        <v>0.02353374646925402</v>
+        <v>0.05925072559511933</v>
       </c>
       <c r="T17">
-        <v>0.02353374646925402</v>
+        <v>0.05925072559511934</v>
       </c>
     </row>
   </sheetData>
